--- a/数据整理/stocks/港股/00241-阿里健康.xlsx
+++ b/数据整理/stocks/港股/00241-阿里健康.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>41.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.88</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.17</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.71</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>71.69</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.37</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004292</t>
+          <t>070012</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华沪深港互联网股票</t>
+          <t>嘉实海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>33.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>070012</t>
+          <t>517050</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实海外中国混合(QDII)</t>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3282</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -678,25 +748,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>517050</t>
+          <t>159856</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证沪港深互联网ETF</t>
+          <t>工银瑞信中证沪港深互联网ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>96.35</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1682</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>517200</t>
+          <t>004292</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实中证沪港深互联网ETF</t>
+          <t>鹏华沪深港互联网股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>97.31</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -734,25 +824,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159856</t>
+          <t>517200</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信中证沪港深互联网ETF</t>
+          <t>嘉实中证沪港深互联网ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98.83</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -772,15 +872,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>71.45</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.45</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00241-阿里健康.xlsx
+++ b/数据整理/stocks/港股/00241-阿里健康.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00241-阿里健康.xlsx
+++ b/数据整理/stocks/港股/00241-阿里健康.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00241-阿里健康.xlsx
+++ b/数据整理/stocks/港股/00241-阿里健康.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00241-阿里健康.xlsx
+++ b/数据整理/stocks/港股/00241-阿里健康.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.05</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.95</v>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1300,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00241-阿里健康.xlsx
+++ b/数据整理/stocks/港股/00241-阿里健康.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.36</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6468</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.21</v>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1471,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05</v>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1422,14 +1509,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.95</v>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1547,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00241-阿里健康.xlsx
+++ b/数据整理/stocks/港股/00241-阿里健康.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.92</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.36</v>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1072</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.21</v>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6440</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1707,14 +1794,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.05</v>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1723,14 +1832,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.95</v>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1739,13 +1870,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00241-阿里健康.xlsx
+++ b/数据整理/stocks/港股/00241-阿里健康.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>4.01</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.92</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.36</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.95</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7142</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513770</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,7 +1506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1489,7 +1714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1621,7 +1846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1715,7 +1940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1999,7 +2224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00241-阿里健康.xlsx
+++ b/数据整理/stocks/港股/00241-阿里健康.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.92</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>4.01</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.92</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.36</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1.95</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -616,7 +633,801 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513280</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159776</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159793</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>517280</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +1635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1222,7 +2033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1506,7 +2317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1714,7 +2525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1846,7 +2657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1940,7 +2751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2222,174 +3033,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>070012</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>41.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2132</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004292</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华沪深港互联网股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1778</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161620</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通核心价值混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>71.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>